--- a/Documents/160223_FIT_BienBanHopVaLamViec.xlsx
+++ b/Documents/160223_FIT_BienBanHopVaLamViec.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HK4-DH\TTCSN\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MY GIT\DUAN1\TTCSN-GROUP10\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF55795-9E89-4BCC-8D82-BCE37EB0EBE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18825" windowHeight="6572" activeTab="4"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Buoi1" sheetId="1" r:id="rId1"/>
@@ -17,18 +18,19 @@
     <sheet name="Buoi3" sheetId="3" r:id="rId3"/>
     <sheet name="Buoi4" sheetId="4" r:id="rId4"/>
     <sheet name="Buoi5" sheetId="5" r:id="rId5"/>
+    <sheet name="Buoi6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mhKWOuyAqcM1PRQXBSmScwoZPxtJw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mhKWOuyAqcM1PRQXBSmScwoZPxtJw=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="126">
   <si>
     <t>Biên bản họp, làm việc nhóm</t>
   </si>
@@ -461,11 +463,38 @@
   <si>
     <t>Phạm Việt Đức - Nữ / Trần Văn Duy - Nam / Nguyễn Duy Đai - Giá tốt / Chu Quốc Khánh - Trẻ Em / Nguyễn Đức Anh - Canifaz</t>
   </si>
+  <si>
+    <t>Thời gian - time: &lt; khung giờ 21h30 - 22:00 &gt;&lt; ngày 22/04/23&gt;</t>
+  </si>
+  <si>
+    <t>Người chủ trì cuộc họp – chair meeting: Phạm Việt Đức</t>
+  </si>
+  <si>
+    <t>9h30-9h45</t>
+  </si>
+  <si>
+    <t>9h45-10h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sửa lỗi khi clone code, pull code </t>
+  </si>
+  <si>
+    <t>Chỉnh sửa hoàn thiện 2 phần menu nhỏ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                       Chu Quốc Khánh</t>
+  </si>
+  <si>
+    <t>Tiếp tục hoàn thiện công việc của tuần trước, hoàn thành phần trang menu của mỗi thành viên</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd\-mm\-yy"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
@@ -810,8 +839,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="79">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -839,26 +868,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -881,16 +898,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
@@ -901,7 +909,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -935,14 +942,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -958,6 +962,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -978,7 +988,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1013,6 +1023,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1228,14 +1241,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H992"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B38" sqref="B38:F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.05" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="7.33203125" customWidth="1"/>
     <col min="2" max="2" width="30.33203125" customWidth="1"/>
@@ -1246,65 +1259,65 @@
     <col min="7" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.05" customHeight="1">
-      <c r="A1" s="71" t="s">
+    <row r="1" spans="1:8" ht="15" customHeight="1">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="73"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.05" customHeight="1">
-      <c r="A2" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="70"/>
-    </row>
-    <row r="3" spans="1:8" ht="29.95" customHeight="1">
-      <c r="A3" s="68" t="s">
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="66"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1">
+      <c r="A2" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="63"/>
+    </row>
+    <row r="3" spans="1:8" ht="30" customHeight="1">
+      <c r="A3" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="70"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.05" customHeight="1">
-      <c r="A4" s="68" t="s">
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="63"/>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1">
+      <c r="A4" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="70"/>
-    </row>
-    <row r="5" spans="1:8" ht="29.95" customHeight="1">
-      <c r="A5" s="68" t="s">
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="63"/>
+    </row>
+    <row r="5" spans="1:8" ht="30" customHeight="1">
+      <c r="A5" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="70"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="63"/>
     </row>
     <row r="6" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="80"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="73"/>
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -1398,14 +1411,14 @@
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A13" s="77" t="s">
+      <c r="A13" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="60"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="61"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="54"/>
     </row>
     <row r="14" spans="1:8" ht="14.25" customHeight="1">
       <c r="A14" s="7" t="s">
@@ -1420,10 +1433,10 @@
       <c r="D14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="75" t="s">
+      <c r="E14" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="61"/>
+      <c r="F14" s="54"/>
     </row>
     <row r="15" spans="1:8" ht="14.25" customHeight="1">
       <c r="A15" s="1">
@@ -1435,13 +1448,13 @@
       <c r="C15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="12"/>
+      <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:8" ht="14.25" customHeight="1">
       <c r="A16" s="1">
@@ -1453,13 +1466,13 @@
       <c r="C16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="74" t="s">
+      <c r="E16" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="61"/>
+      <c r="F16" s="54"/>
     </row>
     <row r="17" spans="1:6" ht="14.25" customHeight="1">
       <c r="A17" s="1">
@@ -1474,10 +1487,10 @@
       <c r="D17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="74" t="s">
+      <c r="E17" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="61"/>
+      <c r="F17" s="54"/>
     </row>
     <row r="18" spans="1:6" ht="14.25" customHeight="1">
       <c r="A18" s="1">
@@ -1489,41 +1502,41 @@
       <c r="C18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="74" t="s">
+      <c r="E18" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="61"/>
+      <c r="F18" s="54"/>
     </row>
     <row r="19" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A19" s="13">
+      <c r="A19" s="1">
         <v>5</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="76" t="s">
+      <c r="E19" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="61"/>
-    </row>
-    <row r="20" spans="1:6" ht="29.95" customHeight="1">
-      <c r="A20" s="59" t="s">
+      <c r="F19" s="54"/>
+    </row>
+    <row r="20" spans="1:6" ht="30" customHeight="1">
+      <c r="A20" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="15"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="12"/>
     </row>
     <row r="21" spans="1:6" ht="14.25" customHeight="1">
       <c r="A21" s="7" t="s">
@@ -1532,10 +1545,10 @@
       <c r="B21" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="75" t="s">
+      <c r="C21" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="61"/>
+      <c r="D21" s="54"/>
       <c r="E21" s="5" t="s">
         <v>41</v>
       </c>
@@ -1550,14 +1563,14 @@
       <c r="B22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="74" t="s">
+      <c r="C22" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="61"/>
-      <c r="E22" s="14" t="s">
+      <c r="D22" s="54"/>
+      <c r="E22" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="F22" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1565,29 +1578,29 @@
       <c r="A23" s="1">
         <v>2</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="74" t="s">
+      <c r="C23" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="61"/>
-      <c r="E23" s="14" t="s">
+      <c r="D23" s="54"/>
+      <c r="E23" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="F23" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A24" s="59" t="s">
+      <c r="A24" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="60"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="61"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="54"/>
     </row>
     <row r="25" spans="1:6" ht="14.25" customHeight="1">
       <c r="A25" s="7" t="s">
@@ -1605,7 +1618,7 @@
       <c r="E25" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F25" s="16" t="s">
+      <c r="F25" s="5" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1613,19 +1626,19 @@
       <c r="A26" s="1">
         <v>1</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C26" s="18">
+      <c r="C26" s="14">
         <v>45004</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F26" s="14" t="s">
+      <c r="F26" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1633,34 +1646,34 @@
       <c r="A27" s="1">
         <v>2</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E27" s="19" t="s">
+      <c r="E27" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="F27" s="14" t="s">
+      <c r="F27" s="2" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A28" s="59" t="s">
+      <c r="A28" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="60"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="61"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="54"/>
     </row>
     <row r="29" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A29" s="20"/>
+      <c r="A29" s="16"/>
       <c r="B29" s="5" t="s">
         <v>62</v>
       </c>
@@ -1684,16 +1697,16 @@
       <c r="B30" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="21">
-        <v>1</v>
-      </c>
-      <c r="D30" s="21">
-        <v>1</v>
-      </c>
-      <c r="E30" s="21">
-        <v>1</v>
-      </c>
-      <c r="F30" s="21" t="s">
+      <c r="C30" s="17">
+        <v>1</v>
+      </c>
+      <c r="D30" s="17">
+        <v>1</v>
+      </c>
+      <c r="E30" s="17">
+        <v>1</v>
+      </c>
+      <c r="F30" s="17" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1704,16 +1717,16 @@
       <c r="B31" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="21">
+      <c r="C31" s="17">
         <v>2</v>
       </c>
-      <c r="D31" s="21">
-        <v>1</v>
-      </c>
-      <c r="E31" s="21">
-        <v>1</v>
-      </c>
-      <c r="F31" s="21" t="s">
+      <c r="D31" s="17">
+        <v>1</v>
+      </c>
+      <c r="E31" s="17">
+        <v>1</v>
+      </c>
+      <c r="F31" s="17" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1724,16 +1737,16 @@
       <c r="B32" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="21">
-        <v>1</v>
-      </c>
-      <c r="D32" s="21">
-        <v>1</v>
-      </c>
-      <c r="E32" s="21">
-        <v>1</v>
-      </c>
-      <c r="F32" s="21" t="s">
+      <c r="C32" s="17">
+        <v>1</v>
+      </c>
+      <c r="D32" s="17">
+        <v>1</v>
+      </c>
+      <c r="E32" s="17">
+        <v>1</v>
+      </c>
+      <c r="F32" s="17" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1744,16 +1757,16 @@
       <c r="B33" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="21">
+      <c r="C33" s="17">
         <v>2</v>
       </c>
-      <c r="D33" s="21">
-        <v>1</v>
-      </c>
-      <c r="E33" s="21">
-        <v>1</v>
-      </c>
-      <c r="F33" s="21" t="s">
+      <c r="D33" s="17">
+        <v>1</v>
+      </c>
+      <c r="E33" s="17">
+        <v>1</v>
+      </c>
+      <c r="F33" s="17" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1764,38 +1777,38 @@
       <c r="B34" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="21">
+      <c r="C34" s="17">
         <v>2</v>
       </c>
-      <c r="D34" s="21">
-        <v>1</v>
-      </c>
-      <c r="E34" s="21">
-        <v>1</v>
-      </c>
-      <c r="F34" s="21" t="s">
+      <c r="D34" s="17">
+        <v>1</v>
+      </c>
+      <c r="E34" s="17">
+        <v>1</v>
+      </c>
+      <c r="F34" s="17" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="29.95" customHeight="1">
-      <c r="A35" s="62" t="s">
+    <row r="35" spans="1:6" ht="30" customHeight="1">
+      <c r="A35" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="63"/>
-      <c r="C35" s="63"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="63"/>
-      <c r="F35" s="64"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="57"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A36" s="65" t="s">
+      <c r="A36" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="66"/>
-      <c r="C36" s="66"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="66"/>
-      <c r="F36" s="67"/>
+      <c r="B36" s="59"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="60"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" customHeight="1">
       <c r="A37" s="7"/>
@@ -1814,38 +1827,38 @@
       <c r="F37" s="5"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A38" s="22"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="21" t="s">
+      <c r="A38" s="18"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D38" s="21" t="s">
+      <c r="D38" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A39" s="22"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="21" t="s">
+      <c r="A39" s="18"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="21" t="s">
+      <c r="D39" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A40" s="22"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="21" t="s">
+      <c r="A40" s="18"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="21"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" customHeight="1"/>
     <row r="42" spans="1:6" ht="14.25" customHeight="1"/>
@@ -2823,7 +2836,7 @@
     <mergeCell ref="A4:F4"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E27" r:id="rId1"/>
+    <hyperlink ref="E27" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
@@ -2831,14 +2844,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.05" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="7.109375" customWidth="1"/>
     <col min="2" max="2" width="25.44140625" customWidth="1"/>
@@ -2850,64 +2863,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="73"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="66"/>
     </row>
     <row r="2" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A2" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="70"/>
+      <c r="A2" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="63"/>
     </row>
     <row r="3" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="70"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="63"/>
     </row>
     <row r="4" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="70"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="63"/>
     </row>
     <row r="5" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="70"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="63"/>
     </row>
     <row r="6" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="80"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="73"/>
     </row>
     <row r="7" spans="1:6" ht="14.25" customHeight="1">
       <c r="A7" s="1" t="s">
@@ -2941,7 +2954,7 @@
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="58" t="s">
+      <c r="F8" s="49" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2957,7 +2970,7 @@
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="58" t="s">
+      <c r="F9" s="49" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2973,7 +2986,7 @@
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="58" t="s">
+      <c r="F10" s="49" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2989,7 +3002,7 @@
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="58" t="s">
+      <c r="F11" s="49" t="s">
         <v>92</v>
       </c>
     </row>
@@ -3005,19 +3018,19 @@
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="58" t="s">
+      <c r="F12" s="49" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A13" s="77" t="s">
+      <c r="A13" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="60"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="61"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="54"/>
     </row>
     <row r="14" spans="1:6" ht="14.25" customHeight="1">
       <c r="A14" s="7" t="s">
@@ -3032,16 +3045,16 @@
       <c r="D14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="75" t="s">
+      <c r="E14" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="61"/>
+      <c r="F14" s="54"/>
     </row>
     <row r="15" spans="1:6" ht="14.25" customHeight="1">
       <c r="A15" s="1">
         <v>1</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C15" s="9" t="s">
@@ -3049,31 +3062,31 @@
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="8"/>
-      <c r="F15" s="12"/>
+      <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:6" ht="14.25" customHeight="1">
       <c r="A16" s="1">
         <v>2</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D16" s="3"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="61"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="54"/>
     </row>
     <row r="17" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A17" s="59" t="s">
+      <c r="A17" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="15"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:6" ht="14.25" customHeight="1">
       <c r="A18" s="7" t="s">
@@ -3082,10 +3095,10 @@
       <c r="B18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="75" t="s">
+      <c r="C18" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="61"/>
+      <c r="D18" s="54"/>
       <c r="E18" s="5" t="s">
         <v>41</v>
       </c>
@@ -3097,27 +3110,27 @@
       <c r="A19" s="1">
         <v>1</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C19" s="81" t="s">
+      <c r="C19" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="D19" s="61"/>
-      <c r="E19" s="19" t="s">
+      <c r="D19" s="54"/>
+      <c r="E19" s="15" t="s">
         <v>79</v>
       </c>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A20" s="59" t="s">
+      <c r="A20" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="61"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="54"/>
     </row>
     <row r="21" spans="1:6" ht="14.25" customHeight="1">
       <c r="A21" s="7" t="s">
@@ -3141,30 +3154,30 @@
       <c r="A22" s="1">
         <v>1</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C22" s="26">
+      <c r="C22" s="20">
         <v>45018</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="2" t="s">
         <v>57</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A23" s="59" t="s">
+      <c r="A23" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="B23" s="60"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="61"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="54"/>
     </row>
     <row r="24" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A24" s="20"/>
+      <c r="A24" s="16"/>
       <c r="B24" s="5" t="s">
         <v>62</v>
       </c>
@@ -3188,16 +3201,16 @@
       <c r="B25" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="24">
+      <c r="C25" s="17">
         <v>2</v>
       </c>
-      <c r="D25" s="24">
-        <v>1</v>
-      </c>
-      <c r="E25" s="24">
-        <v>1</v>
-      </c>
-      <c r="F25" s="24"/>
+      <c r="D25" s="17">
+        <v>1</v>
+      </c>
+      <c r="E25" s="17">
+        <v>1</v>
+      </c>
+      <c r="F25" s="17"/>
     </row>
     <row r="26" spans="1:6" ht="14.25" customHeight="1">
       <c r="A26" s="1">
@@ -3206,16 +3219,16 @@
       <c r="B26" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="24">
-        <v>1</v>
-      </c>
-      <c r="D26" s="24">
-        <v>1</v>
-      </c>
-      <c r="E26" s="24">
-        <v>1</v>
-      </c>
-      <c r="F26" s="24"/>
+      <c r="C26" s="17">
+        <v>1</v>
+      </c>
+      <c r="D26" s="17">
+        <v>1</v>
+      </c>
+      <c r="E26" s="17">
+        <v>1</v>
+      </c>
+      <c r="F26" s="17"/>
     </row>
     <row r="27" spans="1:6" ht="14.25" customHeight="1">
       <c r="A27" s="1">
@@ -3224,16 +3237,16 @@
       <c r="B27" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="24">
+      <c r="C27" s="17">
         <v>2</v>
       </c>
-      <c r="D27" s="24">
-        <v>1</v>
-      </c>
-      <c r="E27" s="24">
-        <v>1</v>
-      </c>
-      <c r="F27" s="24"/>
+      <c r="D27" s="17">
+        <v>1</v>
+      </c>
+      <c r="E27" s="17">
+        <v>1</v>
+      </c>
+      <c r="F27" s="17"/>
     </row>
     <row r="28" spans="1:6" ht="14.25" customHeight="1">
       <c r="A28" s="1">
@@ -3242,16 +3255,16 @@
       <c r="B28" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="24">
-        <v>1</v>
-      </c>
-      <c r="D28" s="24">
-        <v>1</v>
-      </c>
-      <c r="E28" s="24">
-        <v>1</v>
-      </c>
-      <c r="F28" s="24"/>
+      <c r="C28" s="17">
+        <v>1</v>
+      </c>
+      <c r="D28" s="17">
+        <v>1</v>
+      </c>
+      <c r="E28" s="17">
+        <v>1</v>
+      </c>
+      <c r="F28" s="17"/>
     </row>
     <row r="29" spans="1:6" ht="14.25" customHeight="1">
       <c r="A29" s="1">
@@ -3260,36 +3273,36 @@
       <c r="B29" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="24">
-        <v>1</v>
-      </c>
-      <c r="D29" s="24">
-        <v>1</v>
-      </c>
-      <c r="E29" s="24">
-        <v>1</v>
-      </c>
-      <c r="F29" s="24"/>
+      <c r="C29" s="17">
+        <v>1</v>
+      </c>
+      <c r="D29" s="17">
+        <v>1</v>
+      </c>
+      <c r="E29" s="17">
+        <v>1</v>
+      </c>
+      <c r="F29" s="17"/>
     </row>
     <row r="30" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A30" s="62" t="s">
+      <c r="A30" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="63"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="64"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="57"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A31" s="65" t="s">
+      <c r="A31" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="66"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="66"/>
-      <c r="E31" s="66"/>
-      <c r="F31" s="67"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="60"/>
     </row>
     <row r="32" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
       <c r="A32" s="7"/>
@@ -3308,38 +3321,38 @@
       <c r="F32" s="5"/>
     </row>
     <row r="33" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A33" s="48"/>
-      <c r="B33" s="48"/>
-      <c r="C33" s="49" t="s">
+      <c r="A33" s="40"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="49" t="s">
+      <c r="D33" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="E33" s="49"/>
-      <c r="F33" s="50"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="42"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A34" s="50"/>
-      <c r="B34" s="48"/>
-      <c r="C34" s="49" t="s">
+      <c r="A34" s="42"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="49" t="s">
+      <c r="D34" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="E34" s="49"/>
-      <c r="F34" s="50"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="42"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A35" s="50"/>
-      <c r="B35" s="48"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49" t="s">
+      <c r="A35" s="42"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="E35" s="49"/>
-      <c r="F35" s="50"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="42"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" customHeight="1"/>
     <row r="37" spans="1:6" ht="14.25" customHeight="1"/>
@@ -4326,8 +4339,8 @@
     <mergeCell ref="C19:D19"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C19" r:id="rId1"/>
-    <hyperlink ref="E19" r:id="rId2"/>
+    <hyperlink ref="C19" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="E19" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId3"/>
@@ -4335,14 +4348,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection sqref="A1:F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="17.77734375" customWidth="1"/>
     <col min="2" max="3" width="20" customWidth="1"/>
@@ -4352,536 +4365,536 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="73"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="66"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="84" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="70"/>
+      <c r="A2" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="63"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="77" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="70"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="63"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="70"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="63"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="84" t="s">
+      <c r="A5" s="77" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="70"/>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A6" s="78" t="s">
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="63"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" thickBot="1">
+      <c r="A6" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="80"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A7" s="13" t="s">
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="73"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="24.25" customHeight="1" thickBot="1">
-      <c r="A8" s="13">
-        <v>1</v>
-      </c>
-      <c r="B8" s="14" t="s">
+    <row r="8" spans="1:6" ht="24.3" customHeight="1" thickBot="1">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="58" t="s">
+      <c r="F8" s="49" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A9" s="13">
+    <row r="9" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A9" s="1">
         <v>2</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="58" t="s">
+      <c r="F9" s="49" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A10" s="13">
+    <row r="10" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A10" s="1">
         <v>3</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="58" t="s">
+      <c r="F10" s="49" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A11" s="13">
+    <row r="11" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A11" s="1">
         <v>4</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="58" t="s">
+      <c r="F11" s="49" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="23.6" customHeight="1" thickBot="1">
-      <c r="A12" s="13">
+    <row r="12" spans="1:6" ht="23.55" customHeight="1" thickBot="1">
+      <c r="A12" s="1">
         <v>5</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="58" t="s">
+      <c r="F12" s="49" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A13" s="77" t="s">
+    <row r="13" spans="1:6" ht="15" thickBot="1">
+      <c r="A13" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="60"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="61"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="54"/>
     </row>
     <row r="14" spans="1:6" ht="26.85" customHeight="1" thickBot="1">
       <c r="A14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="75" t="s">
+      <c r="E14" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="61"/>
+      <c r="F14" s="54"/>
     </row>
     <row r="15" spans="1:6" ht="39.299999999999997" customHeight="1" thickBot="1">
-      <c r="A15" s="13">
-        <v>1</v>
-      </c>
-      <c r="B15" s="25" t="s">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="52" t="s">
+      <c r="D15" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="E15" s="75"/>
-      <c r="F15" s="82"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="75"/>
     </row>
     <row r="16" spans="1:6" ht="51.75" customHeight="1" thickBot="1">
-      <c r="A16" s="13">
+      <c r="A16" s="1">
         <v>2</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="52" t="s">
+      <c r="D16" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="E16" s="74"/>
-      <c r="F16" s="61"/>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A17" s="59" t="s">
+      <c r="E16" s="67"/>
+      <c r="F16" s="54"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A17" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="15"/>
-    </row>
-    <row r="18" spans="1:6" ht="30.8" thickBot="1">
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="12"/>
+    </row>
+    <row r="18" spans="1:6" ht="30.6" thickBot="1">
       <c r="A18" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="75" t="s">
+      <c r="C18" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="61"/>
-      <c r="E18" s="16" t="s">
+      <c r="D18" s="54"/>
+      <c r="E18" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="30.8" thickBot="1">
-      <c r="A19" s="13">
-        <v>1</v>
-      </c>
-      <c r="B19" s="54" t="s">
+    <row r="19" spans="1:6" ht="30.6" thickBot="1">
+      <c r="A19" s="1">
+        <v>1</v>
+      </c>
+      <c r="B19" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="83" t="s">
+      <c r="C19" s="76" t="s">
         <v>90</v>
       </c>
-      <c r="D19" s="61"/>
-      <c r="E19" s="54" t="s">
+      <c r="D19" s="54"/>
+      <c r="E19" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="F19" s="54" t="s">
+      <c r="F19" s="45" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="36" customHeight="1" thickBot="1">
-      <c r="A20" s="13">
+      <c r="A20" s="1">
         <v>2</v>
       </c>
-      <c r="B20" s="54" t="s">
+      <c r="B20" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="C20" s="83" t="s">
+      <c r="C20" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="D20" s="61"/>
-      <c r="E20" s="54" t="s">
+      <c r="D20" s="54"/>
+      <c r="E20" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="F20" s="54" t="s">
+      <c r="F20" s="45" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="53.7" customHeight="1" thickBot="1">
-      <c r="A21" s="59" t="s">
+      <c r="A21" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="60"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="61"/>
-    </row>
-    <row r="22" spans="1:6" ht="30.8" thickBot="1">
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="54"/>
+    </row>
+    <row r="22" spans="1:6" ht="30.6" thickBot="1">
       <c r="A22" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="16"/>
-    </row>
-    <row r="23" spans="1:6" ht="45.85" thickBot="1">
-      <c r="A23" s="13">
-        <v>1</v>
-      </c>
-      <c r="B23" s="56" t="s">
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" ht="45.6" thickBot="1">
+      <c r="A23" s="1">
+        <v>1</v>
+      </c>
+      <c r="B23" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="C23" s="26">
+      <c r="C23" s="20">
         <v>45024</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-    </row>
-    <row r="24" spans="1:6" ht="60.9" thickBot="1">
-      <c r="A24" s="13">
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" ht="60.6" thickBot="1">
+      <c r="A24" s="1">
         <v>2</v>
       </c>
-      <c r="B24" s="54" t="s">
+      <c r="B24" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="C24" s="26">
+      <c r="C24" s="20">
         <v>45024</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A25" s="59" t="s">
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" thickBot="1">
+      <c r="A25" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="60"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="61"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="54"/>
     </row>
     <row r="26" spans="1:6" ht="75.3" customHeight="1" thickBot="1">
-      <c r="A26" s="20"/>
-      <c r="B26" s="16" t="s">
+      <c r="A26" s="16"/>
+      <c r="B26" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F26" s="16" t="s">
+      <c r="F26" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="43.2" customHeight="1" thickBot="1">
-      <c r="A27" s="13">
-        <v>1</v>
-      </c>
-      <c r="B27" s="14" t="s">
+      <c r="A27" s="1">
+        <v>1</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="24">
-        <v>1</v>
-      </c>
-      <c r="D27" s="24">
-        <v>1</v>
-      </c>
-      <c r="E27" s="24">
-        <v>1</v>
-      </c>
-      <c r="F27" s="24"/>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A28" s="13">
+      <c r="C27" s="17">
+        <v>1</v>
+      </c>
+      <c r="D27" s="17">
+        <v>1</v>
+      </c>
+      <c r="E27" s="17">
+        <v>1</v>
+      </c>
+      <c r="F27" s="17"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A28" s="1">
         <v>2</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="24">
-        <v>1</v>
-      </c>
-      <c r="D28" s="24">
-        <v>1</v>
-      </c>
-      <c r="E28" s="24">
-        <v>1</v>
-      </c>
-      <c r="F28" s="24"/>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A29" s="13">
+      <c r="C28" s="17">
+        <v>1</v>
+      </c>
+      <c r="D28" s="17">
+        <v>1</v>
+      </c>
+      <c r="E28" s="17">
+        <v>1</v>
+      </c>
+      <c r="F28" s="17"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A29" s="1">
         <v>3</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="24">
-        <v>1</v>
-      </c>
-      <c r="D29" s="24">
-        <v>1</v>
-      </c>
-      <c r="E29" s="24">
-        <v>1</v>
-      </c>
-      <c r="F29" s="24"/>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A30" s="13">
+      <c r="C29" s="17">
+        <v>1</v>
+      </c>
+      <c r="D29" s="17">
+        <v>1</v>
+      </c>
+      <c r="E29" s="17">
+        <v>1</v>
+      </c>
+      <c r="F29" s="17"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A30" s="1">
         <v>4</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="24">
-        <v>1</v>
-      </c>
-      <c r="D30" s="24">
-        <v>1</v>
-      </c>
-      <c r="E30" s="24">
-        <v>1</v>
-      </c>
-      <c r="F30" s="24"/>
-    </row>
-    <row r="31" spans="1:6" ht="17.05" customHeight="1" thickBot="1">
-      <c r="A31" s="13">
+      <c r="C30" s="17">
+        <v>1</v>
+      </c>
+      <c r="D30" s="17">
+        <v>1</v>
+      </c>
+      <c r="E30" s="17">
+        <v>1</v>
+      </c>
+      <c r="F30" s="17"/>
+    </row>
+    <row r="31" spans="1:6" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A31" s="1">
         <v>5</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="24">
-        <v>1</v>
-      </c>
-      <c r="D31" s="24">
-        <v>1</v>
-      </c>
-      <c r="E31" s="24">
-        <v>1</v>
-      </c>
-      <c r="F31" s="24"/>
-    </row>
-    <row r="32" spans="1:6" ht="17.05" customHeight="1">
-      <c r="A32" s="62" t="s">
+      <c r="C31" s="17">
+        <v>1</v>
+      </c>
+      <c r="D31" s="17">
+        <v>1</v>
+      </c>
+      <c r="E31" s="17">
+        <v>1</v>
+      </c>
+      <c r="F31" s="17"/>
+    </row>
+    <row r="32" spans="1:6" ht="17.100000000000001" customHeight="1">
+      <c r="A32" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="63"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="64"/>
-    </row>
-    <row r="33" spans="1:6" ht="17.05" customHeight="1" thickBot="1">
-      <c r="A33" s="65" t="s">
+      <c r="B32" s="56"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="57"/>
+    </row>
+    <row r="33" spans="1:6" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A33" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="66"/>
-      <c r="C33" s="66"/>
-      <c r="D33" s="66"/>
-      <c r="E33" s="66"/>
-      <c r="F33" s="67"/>
-    </row>
-    <row r="34" spans="1:6" ht="17.05" customHeight="1" thickBot="1">
+      <c r="B33" s="59"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="60"/>
+    </row>
+    <row r="34" spans="1:6" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A34" s="7"/>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="16" t="s">
+      <c r="D34" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F34" s="16"/>
-    </row>
-    <row r="35" spans="1:6" ht="17.05" customHeight="1" thickBot="1">
-      <c r="A35" s="48"/>
-      <c r="B35" s="48"/>
-      <c r="C35" s="49" t="s">
+      <c r="F34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" ht="17.100000000000001" customHeight="1" thickBot="1">
+      <c r="A35" s="40"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="57" t="s">
+      <c r="D35" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="E35" s="49"/>
-      <c r="F35" s="50"/>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A36" s="50"/>
-      <c r="B36" s="48"/>
-      <c r="C36" s="49" t="s">
+      <c r="E35" s="41"/>
+      <c r="F35" s="42"/>
+    </row>
+    <row r="36" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A36" s="42"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="49" t="s">
+      <c r="D36" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="E36" s="49"/>
-      <c r="F36" s="50"/>
-    </row>
-    <row r="37" spans="1:6" ht="30.8" customHeight="1" thickBot="1">
-      <c r="A37" s="50"/>
-      <c r="B37" s="48"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49" t="s">
+      <c r="E36" s="41"/>
+      <c r="F36" s="42"/>
+    </row>
+    <row r="37" spans="1:6" ht="30.75" customHeight="1" thickBot="1">
+      <c r="A37" s="42"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="E37" s="49"/>
-      <c r="F37" s="50"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -4909,14 +4922,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="64.5546875" customWidth="1"/>
     <col min="2" max="2" width="22.77734375" customWidth="1"/>
@@ -4926,531 +4939,515 @@
     <col min="6" max="6" width="45.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.05" customHeight="1">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:6" ht="15" customHeight="1">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="40"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="33"/>
-    </row>
-    <row r="3" spans="1:6" ht="15.05" customHeight="1">
-      <c r="A3" s="51" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="32"/>
+    </row>
+    <row r="2" spans="1:6" ht="15">
+      <c r="A2" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="25"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1">
+      <c r="A3" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="33"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.05" customHeight="1">
-      <c r="A4" s="31" t="s">
+      <c r="F3" s="25"/>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1">
+      <c r="A4" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="33"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.05" customHeight="1">
-      <c r="A5" s="51" t="s">
+      <c r="F4" s="25"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1">
+      <c r="A5" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="33"/>
+      <c r="F5" s="25"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="36"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="28"/>
     </row>
     <row r="7" spans="1:6" ht="30.15" customHeight="1" thickBot="1">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="23.6" customHeight="1" thickBot="1">
-      <c r="A8" s="13">
-        <v>1</v>
-      </c>
-      <c r="B8" s="14" t="s">
+    <row r="8" spans="1:6" ht="23.55" customHeight="1" thickBot="1">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="58" t="s">
+      <c r="F8" s="49" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A9" s="13">
+    <row r="9" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A9" s="1">
         <v>2</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="58" t="s">
+      <c r="F9" s="49" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="22.95" customHeight="1" thickBot="1">
-      <c r="A10" s="13">
+      <c r="A10" s="1">
         <v>3</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="58" t="s">
+      <c r="F10" s="49" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="23.6" customHeight="1" thickBot="1">
-      <c r="A11" s="13">
+    <row r="11" spans="1:6" ht="23.55" customHeight="1" thickBot="1">
+      <c r="A11" s="1">
         <v>4</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="58" t="s">
+      <c r="F11" s="49" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A12" s="13">
+    <row r="12" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A12" s="1">
         <v>5</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="58" t="s">
+      <c r="F12" s="49" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A13" s="29" t="s">
+      <c r="A13" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="28"/>
-    </row>
-    <row r="14" spans="1:6" ht="26.2" customHeight="1" thickBot="1">
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="21"/>
+    </row>
+    <row r="14" spans="1:6" ht="26.25" customHeight="1" thickBot="1">
       <c r="A14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="27" t="s">
+      <c r="E14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="28"/>
-    </row>
-    <row r="15" spans="1:6" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="A15" s="13">
-        <v>1</v>
-      </c>
-      <c r="B15" s="25" t="s">
+      <c r="F14" s="21"/>
+    </row>
+    <row r="15" spans="1:6" ht="39.9" customHeight="1" thickBot="1">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="52" t="s">
+      <c r="D15" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="E15" s="27"/>
-      <c r="F15" s="53"/>
-    </row>
-    <row r="16" spans="1:6" ht="40.6" customHeight="1" thickBot="1">
-      <c r="A16" s="13">
+      <c r="E15" s="8"/>
+      <c r="F15" s="11"/>
+    </row>
+    <row r="16" spans="1:6" ht="40.65" customHeight="1" thickBot="1">
+      <c r="A16" s="1">
         <v>2</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="52" t="s">
+      <c r="D16" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="E16" s="37"/>
-      <c r="F16" s="28"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="21"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="15"/>
-    </row>
-    <row r="18" spans="1:6" ht="49.1" customHeight="1" thickBot="1">
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="12"/>
+    </row>
+    <row r="18" spans="1:6" ht="49.05" customHeight="1" thickBot="1">
       <c r="A18" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="16" t="s">
+      <c r="D18" s="21"/>
+      <c r="E18" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="76.599999999999994" customHeight="1" thickBot="1">
-      <c r="A19" s="13">
-        <v>1</v>
-      </c>
-      <c r="B19" s="54" t="s">
+    <row r="19" spans="1:6" ht="76.650000000000006" customHeight="1" thickBot="1">
+      <c r="A19" s="1">
+        <v>1</v>
+      </c>
+      <c r="B19" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="C19" s="55" t="s">
+      <c r="C19" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="D19" s="28"/>
-      <c r="E19" s="54" t="s">
+      <c r="D19" s="21"/>
+      <c r="E19" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="F19" s="54" t="s">
+      <c r="F19" s="45" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="85.75" customHeight="1" thickBot="1">
-      <c r="A20" s="13">
+    <row r="20" spans="1:6" ht="85.8" customHeight="1" thickBot="1">
+      <c r="A20" s="1">
         <v>2</v>
       </c>
-      <c r="B20" s="54" t="s">
+      <c r="B20" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="C20" s="55" t="s">
+      <c r="C20" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="54" t="s">
+      <c r="D20" s="21"/>
+      <c r="E20" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="F20" s="54" t="s">
+      <c r="F20" s="45" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="28"/>
-    </row>
-    <row r="22" spans="1:6" ht="22.25" customHeight="1" thickBot="1">
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="21"/>
+    </row>
+    <row r="22" spans="1:6" ht="22.2" customHeight="1" thickBot="1">
       <c r="A22" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="16"/>
+      <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" ht="113.25" customHeight="1" thickBot="1">
-      <c r="A23" s="13">
-        <v>1</v>
-      </c>
-      <c r="B23" s="56" t="s">
+      <c r="A23" s="1">
+        <v>1</v>
+      </c>
+      <c r="B23" s="47" t="s">
         <v>114</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" ht="22.95" customHeight="1" thickBot="1">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="54"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A25" s="41"/>
-      <c r="B25" s="30" t="s">
+      <c r="A25" s="33"/>
+      <c r="B25" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="30" t="s">
+      <c r="D25" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="E25" s="30" t="s">
+      <c r="E25" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="F25" s="28" t="s">
+      <c r="F25" s="21" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A26" s="20">
-        <v>1</v>
-      </c>
-      <c r="B26" s="16" t="s">
+    <row r="26" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A26" s="16">
+        <v>1</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="16">
-        <v>1</v>
-      </c>
-      <c r="D26" s="16">
-        <v>1</v>
-      </c>
-      <c r="E26" s="16">
-        <v>1</v>
-      </c>
-      <c r="F26" s="16"/>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A27" s="13">
+      <c r="C26" s="5">
+        <v>1</v>
+      </c>
+      <c r="D26" s="5">
+        <v>1</v>
+      </c>
+      <c r="E26" s="5">
+        <v>1</v>
+      </c>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A27" s="1">
         <v>2</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="24">
-        <v>1</v>
-      </c>
-      <c r="D27" s="24">
-        <v>1</v>
-      </c>
-      <c r="E27" s="24">
-        <v>1</v>
-      </c>
-      <c r="F27" s="24"/>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A28" s="13">
+      <c r="C27" s="17">
+        <v>1</v>
+      </c>
+      <c r="D27" s="17">
+        <v>1</v>
+      </c>
+      <c r="E27" s="17">
+        <v>1</v>
+      </c>
+      <c r="F27" s="17"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A28" s="1">
         <v>3</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="24">
-        <v>1</v>
-      </c>
-      <c r="D28" s="24">
-        <v>1</v>
-      </c>
-      <c r="E28" s="24">
-        <v>1</v>
-      </c>
-      <c r="F28" s="24"/>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A29" s="13">
+      <c r="C28" s="17">
+        <v>1</v>
+      </c>
+      <c r="D28" s="17">
+        <v>1</v>
+      </c>
+      <c r="E28" s="17">
+        <v>1</v>
+      </c>
+      <c r="F28" s="17"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A29" s="1">
         <v>4</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="24">
-        <v>1</v>
-      </c>
-      <c r="D29" s="24">
-        <v>1</v>
-      </c>
-      <c r="E29" s="24">
-        <v>1</v>
-      </c>
-      <c r="F29" s="24"/>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A30" s="13">
+      <c r="C29" s="17">
+        <v>1</v>
+      </c>
+      <c r="D29" s="17">
+        <v>1</v>
+      </c>
+      <c r="E29" s="17">
+        <v>1</v>
+      </c>
+      <c r="F29" s="17"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A30" s="1">
         <v>5</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="24">
-        <v>1</v>
-      </c>
-      <c r="D30" s="24">
-        <v>1</v>
-      </c>
-      <c r="E30" s="24">
-        <v>1</v>
-      </c>
-      <c r="F30" s="24"/>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A31" s="13" t="s">
+      <c r="C30" s="17">
+        <v>1</v>
+      </c>
+      <c r="D30" s="17">
+        <v>1</v>
+      </c>
+      <c r="E30" s="17">
+        <v>1</v>
+      </c>
+      <c r="F30" s="17"/>
+    </row>
+    <row r="31" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A31" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-    </row>
-    <row r="32" spans="1:6" ht="15.05" customHeight="1">
-      <c r="A32" s="42" t="s">
+      <c r="B31" s="2"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+    </row>
+    <row r="32" spans="1:6" ht="15" customHeight="1">
+      <c r="A32" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="43"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="44"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="36"/>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A33" s="45"/>
-      <c r="B33" s="46" t="s">
+      <c r="A33" s="37"/>
+      <c r="B33" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="46" t="s">
+      <c r="C33" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="D33" s="46" t="s">
+      <c r="D33" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="E33" s="46" t="s">
+      <c r="E33" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="F33" s="47"/>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" thickBot="1">
+      <c r="F33" s="39"/>
+    </row>
+    <row r="34" spans="1:6" ht="15.6" thickBot="1">
       <c r="A34" s="7"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16" t="s">
+      <c r="B34" s="5"/>
+      <c r="C34" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="16" t="s">
+      <c r="D34" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A35" s="48"/>
-      <c r="B35" s="48"/>
-      <c r="C35" s="49" t="s">
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A35" s="40"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="57" t="s">
+      <c r="D35" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="E35" s="49"/>
-      <c r="F35" s="50"/>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A36" s="50"/>
-      <c r="B36" s="48"/>
-      <c r="C36" s="49" t="s">
+      <c r="E35" s="41"/>
+      <c r="F35" s="42"/>
+    </row>
+    <row r="36" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A36" s="42"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="50"/>
-    </row>
-    <row r="37" spans="1:6" ht="30.8" thickBot="1">
-      <c r="A37" s="50"/>
-      <c r="B37" s="48"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49" t="s">
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="42"/>
+    </row>
+    <row r="37" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A37" s="42"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="E37" s="49"/>
-      <c r="F37" s="50"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5458,14 +5455,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="20.5546875" customWidth="1"/>
     <col min="3" max="3" width="31.21875" customWidth="1"/>
@@ -5475,544 +5472,539 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="73"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="66"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="84" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="70"/>
+      <c r="A2" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="63"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="77" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="70"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="63"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="70"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="63"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="84" t="s">
+      <c r="A5" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="70"/>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A6" s="78" t="s">
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="63"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" thickBot="1">
+      <c r="A6" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="80"/>
-    </row>
-    <row r="7" spans="1:6" ht="45.85" thickBot="1">
-      <c r="A7" s="13" t="s">
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="73"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30.8" thickBot="1">
-      <c r="A8" s="13">
-        <v>1</v>
-      </c>
-      <c r="B8" s="14" t="s">
+    <row r="8" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="58" t="s">
+      <c r="F8" s="49" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30.8" thickBot="1">
-      <c r="A9" s="13">
+    <row r="9" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A9" s="1">
         <v>2</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="58" t="s">
+      <c r="F9" s="49" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30.8" thickBot="1">
-      <c r="A10" s="13">
+    <row r="10" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A10" s="1">
         <v>3</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="58" t="s">
+      <c r="F10" s="49" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30.8" thickBot="1">
-      <c r="A11" s="13">
+    <row r="11" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A11" s="1">
         <v>4</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="58" t="s">
+      <c r="F11" s="49" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="45.85" thickBot="1">
-      <c r="A12" s="13">
+    <row r="12" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A12" s="1">
         <v>5</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="58" t="s">
+      <c r="F12" s="49" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A13" s="77" t="s">
+    <row r="13" spans="1:6" ht="15" thickBot="1">
+      <c r="A13" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="60"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="61"/>
-    </row>
-    <row r="14" spans="1:6" ht="75.95" thickBot="1">
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="54"/>
+    </row>
+    <row r="14" spans="1:6" ht="30.6" thickBot="1">
       <c r="A14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="75" t="s">
+      <c r="E14" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="61"/>
-    </row>
-    <row r="15" spans="1:6" ht="72.650000000000006" customHeight="1" thickBot="1">
-      <c r="A15" s="13">
-        <v>1</v>
-      </c>
-      <c r="B15" s="25" t="s">
+      <c r="F14" s="54"/>
+    </row>
+    <row r="15" spans="1:6" ht="72.599999999999994" customHeight="1" thickBot="1">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="52" t="s">
+      <c r="D15" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="E15" s="75"/>
-      <c r="F15" s="82"/>
-    </row>
-    <row r="16" spans="1:6" ht="41.9" customHeight="1" thickBot="1">
-      <c r="A16" s="13">
+      <c r="E15" s="68"/>
+      <c r="F15" s="75"/>
+    </row>
+    <row r="16" spans="1:6" ht="41.85" customHeight="1" thickBot="1">
+      <c r="A16" s="1">
         <v>2</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="52" t="s">
+      <c r="D16" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="E16" s="74"/>
-      <c r="F16" s="61"/>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A17" s="59" t="s">
+      <c r="E16" s="67"/>
+      <c r="F16" s="54"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A17" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="15"/>
-    </row>
-    <row r="18" spans="1:6" ht="35.35" customHeight="1" thickBot="1">
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="12"/>
+    </row>
+    <row r="18" spans="1:6" ht="35.4" customHeight="1" thickBot="1">
       <c r="A18" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="75" t="s">
+      <c r="C18" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="61"/>
-      <c r="E18" s="16" t="s">
+      <c r="D18" s="54"/>
+      <c r="E18" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="38" customHeight="1" thickBot="1">
-      <c r="A19" s="13">
-        <v>1</v>
-      </c>
-      <c r="B19" s="54" t="s">
+    <row r="19" spans="1:6" ht="37.950000000000003" customHeight="1" thickBot="1">
+      <c r="A19" s="1">
+        <v>1</v>
+      </c>
+      <c r="B19" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="C19" s="83" t="s">
+      <c r="C19" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="D19" s="61"/>
-      <c r="E19" s="54" t="s">
+      <c r="D19" s="54"/>
+      <c r="E19" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="F19" s="54" t="s">
+      <c r="F19" s="45" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="33.4" customHeight="1" thickBot="1">
-      <c r="A20" s="13">
+    <row r="20" spans="1:6" ht="33.450000000000003" customHeight="1" thickBot="1">
+      <c r="A20" s="1">
         <v>2</v>
       </c>
-      <c r="B20" s="54" t="s">
+      <c r="B20" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="C20" s="83" t="s">
+      <c r="C20" s="76" t="s">
         <v>95</v>
       </c>
-      <c r="D20" s="61"/>
-      <c r="E20" s="54" t="s">
+      <c r="D20" s="54"/>
+      <c r="E20" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="F20" s="54" t="s">
+      <c r="F20" s="45" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A21" s="59" t="s">
+    <row r="21" spans="1:6" ht="15" thickBot="1">
+      <c r="A21" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="60"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="61"/>
-    </row>
-    <row r="22" spans="1:6" ht="75.95" thickBot="1">
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="54"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.6" thickBot="1">
       <c r="A22" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="16"/>
+      <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" ht="46.5" customHeight="1" thickBot="1">
-      <c r="A23" s="13">
-        <v>1</v>
-      </c>
-      <c r="B23" s="56" t="s">
+      <c r="A23" s="1">
+        <v>1</v>
+      </c>
+      <c r="B23" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="C23" s="26">
+      <c r="C23" s="20">
         <v>45038</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" ht="55.65" customHeight="1" thickBot="1">
-      <c r="A24" s="13">
+      <c r="A24" s="1">
         <v>2</v>
       </c>
-      <c r="B24" s="54" t="s">
+      <c r="B24" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="C24" s="26">
+      <c r="C24" s="20">
         <v>45031</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A25" s="59" t="s">
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" thickBot="1">
+      <c r="A25" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="60"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="61"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="54"/>
     </row>
     <row r="26" spans="1:6" ht="36" customHeight="1" thickBot="1">
-      <c r="A26" s="20"/>
-      <c r="B26" s="16" t="s">
+      <c r="A26" s="16"/>
+      <c r="B26" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F26" s="16" t="s">
+      <c r="F26" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="30.8" thickBot="1">
-      <c r="A27" s="13">
-        <v>1</v>
-      </c>
-      <c r="B27" s="14" t="s">
+    <row r="27" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A27" s="1">
+        <v>1</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="24">
-        <v>1</v>
-      </c>
-      <c r="D27" s="24">
-        <v>1</v>
-      </c>
-      <c r="E27" s="24">
-        <v>1</v>
-      </c>
-      <c r="F27" s="24"/>
-    </row>
-    <row r="28" spans="1:6" ht="30.8" thickBot="1">
-      <c r="A28" s="13">
+      <c r="C27" s="17">
+        <v>1</v>
+      </c>
+      <c r="D27" s="17">
+        <v>1</v>
+      </c>
+      <c r="E27" s="17">
+        <v>1</v>
+      </c>
+      <c r="F27" s="17"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A28" s="1">
         <v>2</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="24">
-        <v>1</v>
-      </c>
-      <c r="D28" s="24">
-        <v>1</v>
-      </c>
-      <c r="E28" s="24">
-        <v>1</v>
-      </c>
-      <c r="F28" s="24"/>
-    </row>
-    <row r="29" spans="1:6" ht="30.8" thickBot="1">
-      <c r="A29" s="13">
+      <c r="C28" s="17">
+        <v>1</v>
+      </c>
+      <c r="D28" s="17">
+        <v>1</v>
+      </c>
+      <c r="E28" s="17">
+        <v>1</v>
+      </c>
+      <c r="F28" s="17"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A29" s="1">
         <v>3</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="24">
-        <v>1</v>
-      </c>
-      <c r="D29" s="24">
-        <v>1</v>
-      </c>
-      <c r="E29" s="24">
-        <v>1</v>
-      </c>
-      <c r="F29" s="24"/>
-    </row>
-    <row r="30" spans="1:6" ht="30.8" thickBot="1">
-      <c r="A30" s="13">
+      <c r="C29" s="17">
+        <v>1</v>
+      </c>
+      <c r="D29" s="17">
+        <v>1</v>
+      </c>
+      <c r="E29" s="17">
+        <v>1</v>
+      </c>
+      <c r="F29" s="17"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A30" s="1">
         <v>4</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="24">
-        <v>1</v>
-      </c>
-      <c r="D30" s="24">
-        <v>1</v>
-      </c>
-      <c r="E30" s="24">
-        <v>1</v>
-      </c>
-      <c r="F30" s="24"/>
-    </row>
-    <row r="31" spans="1:6" ht="45.85" thickBot="1">
-      <c r="A31" s="13">
+      <c r="C30" s="17">
+        <v>1</v>
+      </c>
+      <c r="D30" s="17">
+        <v>1</v>
+      </c>
+      <c r="E30" s="17">
+        <v>1</v>
+      </c>
+      <c r="F30" s="17"/>
+    </row>
+    <row r="31" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A31" s="1">
         <v>5</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="24">
-        <v>1</v>
-      </c>
-      <c r="D31" s="24">
-        <v>1</v>
-      </c>
-      <c r="E31" s="24">
-        <v>1</v>
-      </c>
-      <c r="F31" s="24"/>
+      <c r="C31" s="17">
+        <v>1</v>
+      </c>
+      <c r="D31" s="17">
+        <v>1</v>
+      </c>
+      <c r="E31" s="17">
+        <v>1</v>
+      </c>
+      <c r="F31" s="17"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="62" t="s">
+      <c r="A32" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="63"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="64"/>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A33" s="65" t="s">
+      <c r="B32" s="56"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="57"/>
+    </row>
+    <row r="33" spans="1:6" ht="15" thickBot="1">
+      <c r="A33" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="66"/>
-      <c r="C33" s="66"/>
-      <c r="D33" s="66"/>
-      <c r="E33" s="66"/>
-      <c r="F33" s="67"/>
-    </row>
-    <row r="34" spans="1:6" ht="30.8" thickBot="1">
+      <c r="B33" s="59"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="60"/>
+    </row>
+    <row r="34" spans="1:6" ht="15.6" thickBot="1">
       <c r="A34" s="7"/>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D34" s="16" t="s">
+      <c r="D34" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="F34" s="16"/>
-    </row>
-    <row r="35" spans="1:6" ht="45.85" thickBot="1">
-      <c r="A35" s="48"/>
-      <c r="B35" s="48"/>
-      <c r="C35" s="49" t="s">
+      <c r="F34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A35" s="40"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="57" t="s">
+      <c r="D35" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="E35" s="49"/>
-      <c r="F35" s="50"/>
-    </row>
-    <row r="36" spans="1:6" ht="30.8" thickBot="1">
-      <c r="A36" s="50"/>
-      <c r="B36" s="48"/>
-      <c r="C36" s="49" t="s">
+      <c r="E35" s="41"/>
+      <c r="F35" s="42"/>
+    </row>
+    <row r="36" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A36" s="42"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="49" t="s">
+      <c r="D36" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="E36" s="49"/>
-      <c r="F36" s="50"/>
-    </row>
-    <row r="37" spans="1:6" ht="30.8" thickBot="1">
-      <c r="A37" s="50"/>
-      <c r="B37" s="48"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49" t="s">
+      <c r="E36" s="41"/>
+      <c r="F36" s="42"/>
+    </row>
+    <row r="37" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A37" s="42"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="E37" s="49"/>
-      <c r="F37" s="50"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A32:F32"/>
     <mergeCell ref="A33:F33"/>
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="E14:F14"/>
@@ -6020,13 +6012,601 @@
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="A17:E17"/>
     <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A6:F6"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F676198-3E8D-4C74-9F86-A5E83FFFA8FA}">
+  <dimension ref="A1:F38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21:D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="17.21875" customWidth="1"/>
+    <col min="2" max="2" width="36.44140625" customWidth="1"/>
+    <col min="3" max="3" width="35.88671875" customWidth="1"/>
+    <col min="4" max="4" width="34.44140625" customWidth="1"/>
+    <col min="5" max="5" width="40.21875" customWidth="1"/>
+    <col min="6" max="6" width="28.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" thickBot="1"/>
+    <row r="2" spans="1:6">
+      <c r="A2" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="66"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="63"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="77" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="63"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="63"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="77" t="s">
+        <v>118</v>
+      </c>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="63"/>
+    </row>
+    <row r="7" spans="1:6" ht="15" thickBot="1">
+      <c r="A7" s="71" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="72"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="73"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="49" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A10" s="1">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="49" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A11" s="1">
+        <v>3</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="49" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A12" s="1">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="49" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A13" s="1">
+        <v>5</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="49" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15" thickBot="1">
+      <c r="A14" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="54"/>
+    </row>
+    <row r="15" spans="1:6" ht="54.6" customHeight="1" thickBot="1">
+      <c r="A15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="54"/>
+    </row>
+    <row r="16" spans="1:6" ht="30.6" thickBot="1">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="E16" s="78" t="s">
+        <v>121</v>
+      </c>
+      <c r="F16" s="75"/>
+    </row>
+    <row r="17" spans="1:6" ht="28.2" customHeight="1" thickBot="1">
+      <c r="A17" s="1">
+        <v>2</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="E17" s="67"/>
+      <c r="F17" s="54"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A18" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="12"/>
+    </row>
+    <row r="19" spans="1:6" ht="54.6" customHeight="1" thickBot="1">
+      <c r="A19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="54"/>
+      <c r="E19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="40.200000000000003" customHeight="1" thickBot="1">
+      <c r="A20" s="1">
+        <v>1</v>
+      </c>
+      <c r="B20" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="76" t="s">
+        <v>125</v>
+      </c>
+      <c r="D20" s="54"/>
+      <c r="E20" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" s="45" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="47.4" customHeight="1" thickBot="1">
+      <c r="A21" s="1">
+        <v>2</v>
+      </c>
+      <c r="B21" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="76" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="54"/>
+      <c r="E21" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="F21" s="45" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15" thickBot="1">
+      <c r="A22" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="54"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A23" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" ht="30.6" thickBot="1">
+      <c r="A24" s="1">
+        <v>1</v>
+      </c>
+      <c r="B24" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" s="20">
+        <v>45045</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" ht="21.6" customHeight="1" thickBot="1">
+      <c r="A25" s="1">
+        <v>2</v>
+      </c>
+      <c r="B25" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="20">
+        <v>45038</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" thickBot="1">
+      <c r="A26" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="53"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="54"/>
+    </row>
+    <row r="27" spans="1:6" ht="30.6" thickBot="1">
+      <c r="A27" s="16"/>
+      <c r="B27" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A28" s="1">
+        <v>1</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="17">
+        <v>1</v>
+      </c>
+      <c r="D28" s="17">
+        <v>1</v>
+      </c>
+      <c r="E28" s="17">
+        <v>1</v>
+      </c>
+      <c r="F28" s="17"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A29" s="1">
+        <v>2</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="17">
+        <v>1</v>
+      </c>
+      <c r="D29" s="17">
+        <v>1</v>
+      </c>
+      <c r="E29" s="17">
+        <v>1</v>
+      </c>
+      <c r="F29" s="17"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A30" s="1">
+        <v>3</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="17">
+        <v>2</v>
+      </c>
+      <c r="D30" s="17">
+        <v>1</v>
+      </c>
+      <c r="E30" s="17">
+        <v>1</v>
+      </c>
+      <c r="F30" s="17"/>
+    </row>
+    <row r="31" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A31" s="1">
+        <v>4</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="17">
+        <v>1</v>
+      </c>
+      <c r="D31" s="17">
+        <v>1</v>
+      </c>
+      <c r="E31" s="17">
+        <v>1</v>
+      </c>
+      <c r="F31" s="17"/>
+    </row>
+    <row r="32" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A32" s="1">
+        <v>5</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="17">
+        <v>2</v>
+      </c>
+      <c r="D32" s="17">
+        <v>2</v>
+      </c>
+      <c r="E32" s="17">
+        <v>2</v>
+      </c>
+      <c r="F32" s="17"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="56"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="57"/>
+    </row>
+    <row r="34" spans="1:6" ht="15" thickBot="1">
+      <c r="A34" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="59"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="60"/>
+    </row>
+    <row r="35" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A35" s="7"/>
+      <c r="B35" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F35" s="5"/>
+    </row>
+    <row r="36" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A36" s="40"/>
+      <c r="B36" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="C36" s="41"/>
+      <c r="D36" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" s="41"/>
+      <c r="F36" s="42"/>
+    </row>
+    <row r="37" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A37" s="42"/>
+      <c r="B37" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="C37" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="41"/>
+      <c r="F37" s="42"/>
+    </row>
+    <row r="38" spans="1:6" ht="15.6" thickBot="1">
+      <c r="A38" s="42"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="41"/>
+      <c r="F38" s="42"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A33:F33"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>